--- a/data/Australia's Mothers and Babies 2018 - In Brief Supplementary Tables/Table 2.1.xlsx
+++ b/data/Australia's Mothers and Babies 2018 - In Brief Supplementary Tables/Table 2.1.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d08107d86ebdc691/Desktop/Project/Maternal Health and Adoption/Australia's Mothers and Babies 2018 - In Brief Supplementary Tables/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d08107d86ebdc691/Documents/GitHub/finalproject/data/Australia's Mothers and Babies 2018 - In Brief Supplementary Tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7B5C5E2E-2FA6-467B-BE16-022784AF701A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CA0B720A-8EB0-4B61-AB69-1714CECCB6D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{2322BD7A-7AB8-415B-B1B6-41F75621D0E3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0DE69537-05CF-42EA-8AA9-163EDA1E9D79}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 2.1" sheetId="1" r:id="rId1"/>
@@ -7432,7 +7432,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21B179DE-B3EE-40C7-869E-C33655E9FADC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE5550B8-6539-43B9-83D3-7C1BBFD3C573}">
   <sheetPr codeName="Sheet4">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
